--- a/paper_data.xlsx
+++ b/paper_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1335,12 +1335,13 @@
   <sheetPr/>
   <dimension ref="A1:Y472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="S248" sqref="S248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
+    <col min="10" max="10" width="19.3611111111111" customWidth="1"/>
     <col min="17" max="17" width="15.0740740740741" customWidth="1"/>
     <col min="25" max="25" width="12.7037037037037" customWidth="1"/>
   </cols>
